--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_7_25.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_7_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>620613.3891631175</v>
+        <v>640582.2184203464</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17254715.44216108</v>
+        <v>16597726.15245798</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484443</v>
+        <v>492028.9342484461</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7732964.674450237</v>
+        <v>7777156.596829464</v>
       </c>
     </row>
     <row r="11">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>109.4214227270914</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>424.2958575201043</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
         <v>23.58875529488432</v>
@@ -674,10 +674,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>252.3922801343714</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>4.203262463343094</v>
@@ -817,16 +817,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>152.8017574493832</v>
       </c>
       <c r="F4" t="n">
-        <v>173.5591556145158</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
@@ -883,7 +883,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -899,16 +899,16 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>322.5513054085288</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>424.2958575201043</v>
+        <v>304.4862832382677</v>
       </c>
       <c r="F5" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>404.2032624633431</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
@@ -1066,7 +1066,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>3.139541480022511</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1114,13 +1114,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>157.8626847796105</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>47.71142550357155</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>328.3933971289195</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1291,7 +1291,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
@@ -1300,7 +1300,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>106.479030534304</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -1382,7 +1382,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>129.3727203283471</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
@@ -1430,7 +1430,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>132.7957673084534</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
@@ -1540,13 +1540,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>52.51170991984772</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225723</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1616,7 +1616,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>155.5776225602612</v>
       </c>
       <c r="G14" t="n">
         <v>397.3838530629687</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>71.4343019995334</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
@@ -1774,7 +1774,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>148.6041873872575</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
         <v>163.9353622244306</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
@@ -1819,13 +1819,13 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>179.086131146671</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -1859,10 +1859,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>18.22772027659476</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,10 +1895,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561533</v>
+        <v>206.8981232563536</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
@@ -2008,7 +2008,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>28.46824604904414</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>243.4206519573293</v>
+        <v>240.273786227905</v>
       </c>
       <c r="U19" t="n">
         <v>275.6486707394257</v>
@@ -2084,7 +2084,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>163.5395542426788</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
@@ -2093,7 +2093,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629687</v>
+        <v>129.3727203283449</v>
       </c>
       <c r="H20" t="n">
         <v>286.2388530112159</v>
@@ -2251,13 +2251,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170476</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>157.6489550149833</v>
@@ -2293,10 +2293,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>172.6623007436915</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>49.17722654850309</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
         <v>170.8360944016073</v>
@@ -2482,7 +2482,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>174.9399834978613</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
         <v>157.6489550149833</v>
@@ -2530,7 +2530,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6486707394257</v>
+        <v>56.63677140718679</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
@@ -2542,7 +2542,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="26">
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
         <v>170.8360944016073</v>
@@ -2728,10 +2728,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225734</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>78.47678022721453</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>128.537488214543</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
         <v>170.8360944016073</v>
@@ -2956,10 +2956,10 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>163.9353622244306</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3010,7 +3010,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>269.3061403695714</v>
+        <v>236.0263989200896</v>
       </c>
       <c r="X31" t="n">
         <v>242.9378371199217</v>
@@ -3202,10 +3202,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3247,13 +3247,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>269.3061403695714</v>
+        <v>127.6561220736183</v>
       </c>
       <c r="X34" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>155.4289015982189</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -3433,7 +3433,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>122.9229677259531</v>
       </c>
       <c r="G37" t="n">
         <v>163.9353622244306</v>
@@ -3472,7 +3472,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>105.6319392430757</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3560,7 +3560,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655108</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
         <v>400.806900043077</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>69.45405731752598</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
@@ -3676,7 +3676,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>18.05677735225728</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800578</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
@@ -3907,10 +3907,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>84.71997427496105</v>
       </c>
       <c r="G43" t="n">
-        <v>19.80087630034462</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
         <v>138.5031525665292</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>157.6489550149833</v>
@@ -3952,7 +3952,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
@@ -3961,7 +3961,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800047</v>
       </c>
       <c r="T44" t="n">
         <v>217.8665548556918</v>
@@ -4153,7 +4153,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>131.9969996527484</v>
+        <v>122.9742767430574</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>626.6133988393536</v>
+        <v>1670.308256514056</v>
       </c>
       <c r="C2" t="n">
-        <v>516.086709216029</v>
+        <v>1232.165783697479</v>
       </c>
       <c r="D2" t="n">
-        <v>87.50503495329731</v>
+        <v>796.2559988719236</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>362.4812540302188</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>338.6542284798306</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>338.6542284798306</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.52407392304686</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018686</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>484.3619720031048</v>
       </c>
       <c r="K2" t="n">
-        <v>687.9235674375537</v>
+        <v>484.3619720031048</v>
       </c>
       <c r="L2" t="n">
-        <v>687.9235674375537</v>
+        <v>484.3619720031048</v>
       </c>
       <c r="M2" t="n">
-        <v>687.9235674375537</v>
+        <v>484.3619720031048</v>
       </c>
       <c r="N2" t="n">
-        <v>687.9235674375537</v>
+        <v>524.3060841805669</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1132.008730489129</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1739.711376797692</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2286.210162756286</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509343</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2371.71235369318</v>
       </c>
       <c r="T2" t="n">
-        <v>1477.116202953456</v>
+        <v>2371.71235369318</v>
       </c>
       <c r="U2" t="n">
-        <v>1477.116202953456</v>
+        <v>2116.770656587754</v>
       </c>
       <c r="V2" t="n">
-        <v>1477.116202953456</v>
+        <v>2116.770656587754</v>
       </c>
       <c r="W2" t="n">
-        <v>1072.260748364489</v>
+        <v>2115.955606039191</v>
       </c>
       <c r="X2" t="n">
-        <v>1057.158688984204</v>
+        <v>1696.813142618502</v>
       </c>
       <c r="Y2" t="n">
-        <v>1052.912969324261</v>
+        <v>1692.56742295856</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>555.2790295414796</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>448.822568378122</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>353.7322795246752</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>259.6118648516289</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>176.2280264677905</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>90.8429367339744</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018686</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>75.17095771064446</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>399.7292826768568</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>1007.431928985419</v>
       </c>
       <c r="L3" t="n">
-        <v>804.6185656731816</v>
+        <v>1007.431928985419</v>
       </c>
       <c r="M3" t="n">
-        <v>804.6185656731816</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="N3" t="n">
-        <v>804.6185656731816</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="O3" t="n">
-        <v>804.6185656731816</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1595.174267934656</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1712.347046028996</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1648.891608477379</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1518.71296480798</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1342.376417807949</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1143.258899869948</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>957.936145603142</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>803.068709842022</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>676.5829306212428</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>209.2559470001092</v>
+        <v>718.5992524485146</v>
       </c>
       <c r="C4" t="n">
-        <v>209.2559470001092</v>
+        <v>546.0375409317395</v>
       </c>
       <c r="D4" t="n">
-        <v>209.2559470001092</v>
+        <v>380.1595481332622</v>
       </c>
       <c r="E4" t="n">
-        <v>209.2559470001092</v>
+        <v>225.8143385884306</v>
       </c>
       <c r="F4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018686</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018686</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018686</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018686</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>135.6869697148767</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>410.4454242860123</v>
       </c>
       <c r="L4" t="n">
-        <v>395.2818083374338</v>
+        <v>828.6553060539734</v>
       </c>
       <c r="M4" t="n">
-        <v>815.3347072823371</v>
+        <v>1077.736506291243</v>
       </c>
       <c r="N4" t="n">
-        <v>1235.38760622724</v>
+        <v>1519.995309448888</v>
       </c>
       <c r="O4" t="n">
-        <v>1528.990655216085</v>
+        <v>1939.664558674669</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>2287.171452645011</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509343</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>2433.946406214715</v>
       </c>
       <c r="S4" t="n">
-        <v>1537.942061378414</v>
+        <v>2274.705037512711</v>
       </c>
       <c r="T4" t="n">
-        <v>1292.062614956869</v>
+        <v>2028.825591091167</v>
       </c>
       <c r="U4" t="n">
-        <v>1013.629614209975</v>
+        <v>1750.392590344272</v>
       </c>
       <c r="V4" t="n">
-        <v>726.6741060804052</v>
+        <v>1463.437082214702</v>
       </c>
       <c r="W4" t="n">
-        <v>454.6477016666967</v>
+        <v>1191.410677800994</v>
       </c>
       <c r="X4" t="n">
-        <v>209.2559470001092</v>
+        <v>946.0189231344064</v>
       </c>
       <c r="Y4" t="n">
-        <v>209.2559470001092</v>
+        <v>718.5992524485146</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1250.721030006719</v>
+        <v>1256.616618691218</v>
       </c>
       <c r="C5" t="n">
-        <v>1216.618961230547</v>
+        <v>1222.514549915045</v>
       </c>
       <c r="D5" t="n">
-        <v>890.8095618279922</v>
+        <v>1190.645169129893</v>
       </c>
       <c r="E5" t="n">
-        <v>462.2278875652606</v>
+        <v>883.0832668690169</v>
       </c>
       <c r="F5" t="n">
-        <v>34.36045797446834</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G5" t="n">
-        <v>34.36045797446834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>453.9965675465116</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M5" t="n">
-        <v>453.9965675465116</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N5" t="n">
-        <v>453.9965675465116</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O5" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>2106.304372256757</v>
       </c>
       <c r="X5" t="n">
-        <v>1681.26632015157</v>
+        <v>1687.161908836068</v>
       </c>
       <c r="Y5" t="n">
-        <v>1272.980196451223</v>
+        <v>1278.875785135721</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>546.2867191875922</v>
+        <v>741.4772326516122</v>
       </c>
       <c r="C7" t="n">
-        <v>546.2867191875922</v>
+        <v>568.9155211348371</v>
       </c>
       <c r="D7" t="n">
-        <v>380.4087263891149</v>
+        <v>403.0375283363599</v>
       </c>
       <c r="E7" t="n">
-        <v>210.6507226398521</v>
+        <v>233.2795245870971</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>56.57247054885332</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933183</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>414.7393562644539</v>
       </c>
       <c r="L7" t="n">
-        <v>452.1535503695694</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M7" t="n">
-        <v>872.2064493144727</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1292.259348259376</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T7" t="n">
-        <v>1516.524240083786</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U7" t="n">
-        <v>1238.091239336891</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>951.1357312073217</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W7" t="n">
-        <v>791.6784738541797</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>546.2867191875922</v>
+        <v>1160.715522056491</v>
       </c>
       <c r="Y7" t="n">
-        <v>546.2867191875922</v>
+        <v>933.2958513705994</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>962.159776161526</v>
+        <v>981.4316298953097</v>
       </c>
       <c r="C8" t="n">
-        <v>928.0577073853534</v>
+        <v>543.2891570787331</v>
       </c>
       <c r="D8" t="n">
-        <v>896.188326600202</v>
+        <v>107.3793722531775</v>
       </c>
       <c r="E8" t="n">
-        <v>462.4135817584972</v>
+        <v>77.64503145187676</v>
       </c>
       <c r="F8" t="n">
-        <v>438.586556208109</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G8" t="n">
-        <v>37.18872483137282</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>37.18872483137282</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>36.77193545851282</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>472.0266229114307</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>927.0793242105268</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L8" t="n">
-        <v>927.0793242105268</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="M8" t="n">
-        <v>927.0793242105268</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="N8" t="n">
-        <v>927.0793242105268</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="O8" t="n">
-        <v>927.0793242105268</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="P8" t="n">
-        <v>1382.132025509623</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1669.442708172584</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1838.596772925641</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1838.596772925641</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1838.596772925641</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>1838.596772925641</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>1838.596772925641</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W8" t="n">
-        <v>1837.781722377078</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X8" t="n">
-        <v>1418.639258956389</v>
+        <v>1007.936515999756</v>
       </c>
       <c r="Y8" t="n">
-        <v>1010.353135256043</v>
+        <v>1003.690796339813</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>542.9436804498056</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>436.4872192864479</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>341.3969304330012</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>247.2765157599549</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>163.8926773761165</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>78.50758764230035</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>36.77193545851282</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>62.83560861897041</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>387.3939335851828</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>842.4466348842789</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>842.4466348842789</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>842.4466348842789</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>842.4466348842789</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>842.4466348842789</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1127.786217543886</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1582.838918842982</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1700.011696937322</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1636.556259385705</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1506.377615716306</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1330.041068716275</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1130.923550778274</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>945.6007965114679</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>790.733360750348</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>664.2475815295687</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>766.5613305153753</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>766.5613305153753</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>600.683337716898</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>430.9253339676353</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>430.9253339676353</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>265.334058993463</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>125.4318846838375</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>36.77193545851282</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>123.3516206232027</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>398.1100751943383</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>425.5855996342264</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>880.6383009333225</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1322.897104090967</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1322.897104090967</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1670.403998061309</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1838.596772925641</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1817.178951631013</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1817.178951631013</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>1817.178951631013</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>1538.745950884118</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1431.191374586842</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1431.191374586842</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1185.799619920254</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>958.3799492343624</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2252.656868168567</v>
+        <v>2523.375184062124</v>
       </c>
       <c r="C11" t="n">
-        <v>1814.514395351991</v>
+        <v>2085.232711245548</v>
       </c>
       <c r="D11" t="n">
-        <v>1378.604610526435</v>
+        <v>1649.322926419992</v>
       </c>
       <c r="E11" t="n">
-        <v>944.8298656847301</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F11" t="n">
-        <v>516.9624360939379</v>
+        <v>787.680751987495</v>
       </c>
       <c r="G11" t="n">
         <v>386.2829206107589</v>
       </c>
       <c r="H11" t="n">
-        <v>97.15276605397517</v>
+        <v>97.15276605397513</v>
       </c>
       <c r="I11" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111513</v>
       </c>
       <c r="J11" t="n">
         <v>531.9906641340331</v>
@@ -5045,46 +5045,46 @@
         <v>1366.340956092211</v>
       </c>
       <c r="L11" t="n">
-        <v>2441.40092234507</v>
+        <v>2312.656441940403</v>
       </c>
       <c r="M11" t="n">
-        <v>3292.836108510712</v>
+        <v>2312.656441940403</v>
       </c>
       <c r="N11" t="n">
-        <v>3292.836108510712</v>
+        <v>2312.656441940403</v>
       </c>
       <c r="O11" t="n">
-        <v>3292.836108510712</v>
+        <v>3292.836108510709</v>
       </c>
       <c r="P11" t="n">
-        <v>4121.145983344108</v>
+        <v>4121.145983344105</v>
       </c>
       <c r="Q11" t="n">
-        <v>4667.644769302702</v>
+        <v>4667.6447693027</v>
       </c>
       <c r="R11" t="n">
-        <v>4836.798834055759</v>
+        <v>4836.798834055757</v>
       </c>
       <c r="S11" t="n">
-        <v>4753.146960239596</v>
+        <v>4753.146960239594</v>
       </c>
       <c r="T11" t="n">
-        <v>4533.079733112634</v>
+        <v>4533.079733112632</v>
       </c>
       <c r="U11" t="n">
-        <v>4273.857430429651</v>
+        <v>4273.857430429649</v>
       </c>
       <c r="V11" t="n">
-        <v>3911.240480363477</v>
+        <v>3911.240480363475</v>
       </c>
       <c r="W11" t="n">
-        <v>3506.385025774511</v>
+        <v>3777.103341668068</v>
       </c>
       <c r="X11" t="n">
-        <v>3087.242562353822</v>
+        <v>3357.960878247379</v>
       </c>
       <c r="Y11" t="n">
-        <v>2678.956438653475</v>
+        <v>2949.674754547032</v>
       </c>
     </row>
     <row r="12">
@@ -5094,10 +5094,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>602.907721672408</v>
+        <v>602.9077216724079</v>
       </c>
       <c r="C12" t="n">
-        <v>496.4512605090503</v>
+        <v>496.4512605090502</v>
       </c>
       <c r="D12" t="n">
         <v>401.3609716556035</v>
@@ -5112,10 +5112,10 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H12" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111513</v>
       </c>
       <c r="I12" t="n">
-        <v>122.7996498415728</v>
+        <v>122.7996498415727</v>
       </c>
       <c r="J12" t="n">
         <v>447.3579748077851</v>
@@ -5127,13 +5127,13 @@
         <v>447.3579748077851</v>
       </c>
       <c r="M12" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N12" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O12" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P12" t="n">
         <v>1102.064021433509</v>
@@ -5160,10 +5160,10 @@
         <v>1005.56483773407</v>
       </c>
       <c r="X12" t="n">
-        <v>850.6974019729504</v>
+        <v>850.6974019729503</v>
       </c>
       <c r="Y12" t="n">
-        <v>724.2116227521711</v>
+        <v>724.211622752171</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>947.2320137580463</v>
+        <v>1063.244993550994</v>
       </c>
       <c r="C13" t="n">
-        <v>774.6703022412712</v>
+        <v>890.6832820342188</v>
       </c>
       <c r="D13" t="n">
-        <v>608.792309442794</v>
+        <v>724.8052892357416</v>
       </c>
       <c r="E13" t="n">
-        <v>439.0343056935312</v>
+        <v>555.0472854864788</v>
       </c>
       <c r="F13" t="n">
-        <v>262.3272516552875</v>
+        <v>378.340231448235</v>
       </c>
       <c r="G13" t="n">
-        <v>96.73597668111506</v>
+        <v>325.2981002160653</v>
       </c>
       <c r="H13" t="n">
-        <v>96.73597668111518</v>
+        <v>185.3959259064398</v>
       </c>
       <c r="I13" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111513</v>
       </c>
       <c r="J13" t="n">
         <v>183.315661845805</v>
@@ -5203,10 +5203,10 @@
         <v>458.0741164169406</v>
       </c>
       <c r="L13" t="n">
-        <v>876.2839981849017</v>
+        <v>876.2839981849016</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.767865365815</v>
+        <v>1335.767865365814</v>
       </c>
       <c r="N13" t="n">
         <v>1778.026668523459</v>
@@ -5221,28 +5221,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R13" t="n">
-        <v>2713.395586583915</v>
+        <v>2691.977765289287</v>
       </c>
       <c r="S13" t="n">
-        <v>2695.15641754123</v>
+        <v>2532.736396587283</v>
       </c>
       <c r="T13" t="n">
-        <v>2449.276971119686</v>
+        <v>2286.856950165738</v>
       </c>
       <c r="U13" t="n">
-        <v>2170.843970372791</v>
+        <v>2286.856950165738</v>
       </c>
       <c r="V13" t="n">
-        <v>1883.888462243221</v>
+        <v>1999.901442036169</v>
       </c>
       <c r="W13" t="n">
-        <v>1611.862057829513</v>
+        <v>1727.87503762246</v>
       </c>
       <c r="X13" t="n">
-        <v>1366.470303162925</v>
+        <v>1482.483282955873</v>
       </c>
       <c r="Y13" t="n">
-        <v>1139.050632477033</v>
+        <v>1255.063612269981</v>
       </c>
     </row>
     <row r="14">
@@ -5252,16 +5252,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2523.375184062124</v>
+        <v>2252.656868168565</v>
       </c>
       <c r="C14" t="n">
-        <v>2085.232711245548</v>
+        <v>1814.514395351989</v>
       </c>
       <c r="D14" t="n">
-        <v>1649.322926419992</v>
+        <v>1378.604610526433</v>
       </c>
       <c r="E14" t="n">
-        <v>1215.548181578287</v>
+        <v>944.8298656847282</v>
       </c>
       <c r="F14" t="n">
         <v>787.680751987495</v>
@@ -5270,10 +5270,10 @@
         <v>386.2829206107589</v>
       </c>
       <c r="H14" t="n">
-        <v>97.15276605397518</v>
+        <v>97.15276605397513</v>
       </c>
       <c r="I14" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111513</v>
       </c>
       <c r="J14" t="n">
         <v>531.9906641340331</v>
@@ -5282,46 +5282,46 @@
         <v>1366.340956092211</v>
       </c>
       <c r="L14" t="n">
-        <v>1366.340956092211</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M14" t="n">
-        <v>1366.340956092211</v>
+        <v>2481.810506693459</v>
       </c>
       <c r="N14" t="n">
-        <v>2312.656441940406</v>
+        <v>2481.810506693459</v>
       </c>
       <c r="O14" t="n">
-        <v>3292.836108510713</v>
+        <v>3461.990173263765</v>
       </c>
       <c r="P14" t="n">
-        <v>4121.145983344109</v>
+        <v>4290.300048097161</v>
       </c>
       <c r="Q14" t="n">
-        <v>4667.644769302703</v>
+        <v>4836.798834055757</v>
       </c>
       <c r="R14" t="n">
-        <v>4836.798834055759</v>
+        <v>4836.798834055757</v>
       </c>
       <c r="S14" t="n">
-        <v>4836.798834055759</v>
+        <v>4753.146960239594</v>
       </c>
       <c r="T14" t="n">
-        <v>4616.731606928798</v>
+        <v>4533.079733112632</v>
       </c>
       <c r="U14" t="n">
-        <v>4544.575746323208</v>
+        <v>4273.857430429649</v>
       </c>
       <c r="V14" t="n">
-        <v>4181.958796257035</v>
+        <v>3911.240480363475</v>
       </c>
       <c r="W14" t="n">
-        <v>3777.103341668068</v>
+        <v>3506.385025774509</v>
       </c>
       <c r="X14" t="n">
-        <v>3357.960878247379</v>
+        <v>3087.24256235382</v>
       </c>
       <c r="Y14" t="n">
-        <v>2949.674754547033</v>
+        <v>2678.956438653473</v>
       </c>
     </row>
     <row r="15">
@@ -5331,10 +5331,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>602.907721672408</v>
+        <v>602.9077216724079</v>
       </c>
       <c r="C15" t="n">
-        <v>496.4512605090503</v>
+        <v>496.4512605090502</v>
       </c>
       <c r="D15" t="n">
         <v>401.3609716556035</v>
@@ -5349,10 +5349,10 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H15" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111513</v>
       </c>
       <c r="I15" t="n">
-        <v>122.7996498415728</v>
+        <v>122.7996498415727</v>
       </c>
       <c r="J15" t="n">
         <v>447.3579748077851</v>
@@ -5397,10 +5397,10 @@
         <v>1005.56483773407</v>
       </c>
       <c r="X15" t="n">
-        <v>850.6974019729504</v>
+        <v>850.6974019729503</v>
       </c>
       <c r="Y15" t="n">
-        <v>724.2116227521711</v>
+        <v>724.211622752171</v>
       </c>
     </row>
     <row r="16">
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>976.6306115230861</v>
+        <v>1175.794137292996</v>
       </c>
       <c r="C16" t="n">
-        <v>976.6306115230861</v>
+        <v>1003.232425776221</v>
       </c>
       <c r="D16" t="n">
-        <v>810.752618724609</v>
+        <v>837.3544329777441</v>
       </c>
       <c r="E16" t="n">
-        <v>640.9946149753462</v>
+        <v>667.5964292284814</v>
       </c>
       <c r="F16" t="n">
-        <v>490.8893751902377</v>
+        <v>490.8893751902376</v>
       </c>
       <c r="G16" t="n">
         <v>325.2981002160653</v>
       </c>
       <c r="H16" t="n">
-        <v>185.3959259064399</v>
+        <v>185.3959259064398</v>
       </c>
       <c r="I16" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111513</v>
       </c>
       <c r="J16" t="n">
-        <v>183.3156618458051</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K16" t="n">
         <v>458.0741164169406</v>
       </c>
       <c r="L16" t="n">
-        <v>876.2839981849017</v>
+        <v>876.2839981849016</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.767865365815</v>
+        <v>1335.767865365814</v>
       </c>
       <c r="N16" t="n">
         <v>1778.026668523459</v>
@@ -5458,28 +5458,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R16" t="n">
-        <v>2691.977765289287</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S16" t="n">
-        <v>2532.736396587283</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T16" t="n">
-        <v>2286.856950165738</v>
+        <v>2308.274771460367</v>
       </c>
       <c r="U16" t="n">
-        <v>2008.423949418844</v>
+        <v>2127.379689494032</v>
       </c>
       <c r="V16" t="n">
-        <v>1721.468441289274</v>
+        <v>1840.424181364463</v>
       </c>
       <c r="W16" t="n">
-        <v>1449.442036875565</v>
+        <v>1840.424181364463</v>
       </c>
       <c r="X16" t="n">
-        <v>1204.050282208978</v>
+        <v>1595.032426697875</v>
       </c>
       <c r="Y16" t="n">
-        <v>976.6306115230861</v>
+        <v>1367.612756011983</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2252.656868168568</v>
+        <v>2522.958394689264</v>
       </c>
       <c r="C17" t="n">
-        <v>1814.514395351991</v>
+        <v>2084.815921872688</v>
       </c>
       <c r="D17" t="n">
-        <v>1378.604610526435</v>
+        <v>1648.906137047132</v>
       </c>
       <c r="E17" t="n">
-        <v>944.8298656847305</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F17" t="n">
-        <v>516.9624360939383</v>
+        <v>787.2639626146349</v>
       </c>
       <c r="G17" t="n">
-        <v>115.5646047172022</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H17" t="n">
-        <v>97.15276605397518</v>
+        <v>96.73597668111513</v>
       </c>
       <c r="I17" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111513</v>
       </c>
       <c r="J17" t="n">
-        <v>521.7292312988378</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K17" t="n">
-        <v>1356.079523257016</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L17" t="n">
-        <v>1356.079523257016</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M17" t="n">
-        <v>1356.079523257016</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N17" t="n">
-        <v>2481.810506693463</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O17" t="n">
-        <v>3461.990173263769</v>
+        <v>3421.580588915377</v>
       </c>
       <c r="P17" t="n">
-        <v>4290.300048097165</v>
+        <v>4249.890463748773</v>
       </c>
       <c r="Q17" t="n">
-        <v>4836.798834055759</v>
+        <v>4796.389249707368</v>
       </c>
       <c r="R17" t="n">
-        <v>4836.798834055759</v>
+        <v>4836.798834055757</v>
       </c>
       <c r="S17" t="n">
-        <v>4753.146960239596</v>
+        <v>4753.146960239594</v>
       </c>
       <c r="T17" t="n">
-        <v>4533.079733112635</v>
+        <v>4753.146960239594</v>
       </c>
       <c r="U17" t="n">
-        <v>4273.857430429652</v>
+        <v>4544.158956950349</v>
       </c>
       <c r="V17" t="n">
-        <v>3911.240480363478</v>
+        <v>4181.542006884175</v>
       </c>
       <c r="W17" t="n">
-        <v>3506.385025774511</v>
+        <v>3776.686552295208</v>
       </c>
       <c r="X17" t="n">
-        <v>3087.242562353822</v>
+        <v>3357.544088874519</v>
       </c>
       <c r="Y17" t="n">
-        <v>2678.956438653475</v>
+        <v>2949.257965174172</v>
       </c>
     </row>
     <row r="18">
@@ -5568,10 +5568,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>602.907721672408</v>
+        <v>602.9077216724079</v>
       </c>
       <c r="C18" t="n">
-        <v>496.4512605090503</v>
+        <v>496.4512605090502</v>
       </c>
       <c r="D18" t="n">
         <v>401.3609716556035</v>
@@ -5586,10 +5586,10 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H18" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111513</v>
       </c>
       <c r="I18" t="n">
-        <v>122.7996498415728</v>
+        <v>122.7996498415727</v>
       </c>
       <c r="J18" t="n">
         <v>447.3579748077851</v>
@@ -5634,10 +5634,10 @@
         <v>1005.56483773407</v>
       </c>
       <c r="X18" t="n">
-        <v>850.6974019729504</v>
+        <v>850.6974019729503</v>
       </c>
       <c r="Y18" t="n">
-        <v>724.2116227521711</v>
+        <v>724.211622752171</v>
       </c>
     </row>
     <row r="19">
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>806.2298140987273</v>
+        <v>947.2320137580463</v>
       </c>
       <c r="C19" t="n">
-        <v>633.6681025819522</v>
+        <v>774.6703022412712</v>
       </c>
       <c r="D19" t="n">
-        <v>467.7901097834749</v>
+        <v>608.792309442794</v>
       </c>
       <c r="E19" t="n">
         <v>439.0343056935313</v>
       </c>
       <c r="F19" t="n">
-        <v>262.3272516552876</v>
+        <v>262.3272516552875</v>
       </c>
       <c r="G19" t="n">
-        <v>96.73597668111523</v>
+        <v>96.73597668111513</v>
       </c>
       <c r="H19" t="n">
-        <v>96.73597668111523</v>
+        <v>96.73597668111513</v>
       </c>
       <c r="I19" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111513</v>
       </c>
       <c r="J19" t="n">
-        <v>183.3156618458051</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K19" t="n">
         <v>458.0741164169406</v>
       </c>
       <c r="L19" t="n">
-        <v>876.2839981849017</v>
+        <v>876.2839981849016</v>
       </c>
       <c r="M19" t="n">
-        <v>1335.767865365815</v>
+        <v>1335.767865365814</v>
       </c>
       <c r="N19" t="n">
         <v>1778.026668523459</v>
@@ -5695,28 +5695,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R19" t="n">
-        <v>2713.395586583915</v>
+        <v>2691.977765289286</v>
       </c>
       <c r="S19" t="n">
-        <v>2554.154217881911</v>
+        <v>2691.977765289286</v>
       </c>
       <c r="T19" t="n">
-        <v>2308.274771460367</v>
+        <v>2449.276971119685</v>
       </c>
       <c r="U19" t="n">
-        <v>2029.841770713472</v>
+        <v>2170.84397037279</v>
       </c>
       <c r="V19" t="n">
-        <v>1742.886262583902</v>
+        <v>1883.888462243221</v>
       </c>
       <c r="W19" t="n">
-        <v>1470.859858170194</v>
+        <v>1611.862057829513</v>
       </c>
       <c r="X19" t="n">
-        <v>1225.468103503606</v>
+        <v>1366.470303162925</v>
       </c>
       <c r="Y19" t="n">
-        <v>998.0484328177145</v>
+        <v>1139.050632477033</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2252.656868168568</v>
+        <v>2252.656868168565</v>
       </c>
       <c r="C20" t="n">
-        <v>1814.514395351991</v>
+        <v>1814.514395351988</v>
       </c>
       <c r="D20" t="n">
-        <v>1649.322926419992</v>
+        <v>1378.604610526433</v>
       </c>
       <c r="E20" t="n">
-        <v>1215.548181578287</v>
+        <v>944.8298656847278</v>
       </c>
       <c r="F20" t="n">
-        <v>787.680751987495</v>
+        <v>516.9624360939356</v>
       </c>
       <c r="G20" t="n">
         <v>386.2829206107589</v>
       </c>
       <c r="H20" t="n">
-        <v>97.15276605397518</v>
+        <v>97.1527660539752</v>
       </c>
       <c r="I20" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111513</v>
       </c>
       <c r="J20" t="n">
         <v>531.9906641340331</v>
@@ -5759,43 +5759,43 @@
         <v>2441.40092234507</v>
       </c>
       <c r="M20" t="n">
-        <v>2441.40092234507</v>
+        <v>2481.810506693459</v>
       </c>
       <c r="N20" t="n">
-        <v>2441.40092234507</v>
+        <v>2481.810506693459</v>
       </c>
       <c r="O20" t="n">
-        <v>3421.580588915377</v>
+        <v>3461.990173263765</v>
       </c>
       <c r="P20" t="n">
-        <v>4249.890463748773</v>
+        <v>4290.300048097161</v>
       </c>
       <c r="Q20" t="n">
-        <v>4796.389249707368</v>
+        <v>4836.798834055757</v>
       </c>
       <c r="R20" t="n">
-        <v>4836.798834055759</v>
+        <v>4836.798834055757</v>
       </c>
       <c r="S20" t="n">
-        <v>4753.146960239596</v>
+        <v>4753.146960239594</v>
       </c>
       <c r="T20" t="n">
-        <v>4533.079733112635</v>
+        <v>4533.079733112632</v>
       </c>
       <c r="U20" t="n">
-        <v>4273.857430429652</v>
+        <v>4273.857430429649</v>
       </c>
       <c r="V20" t="n">
-        <v>3911.240480363478</v>
+        <v>3911.240480363475</v>
       </c>
       <c r="W20" t="n">
-        <v>3506.385025774512</v>
+        <v>3506.385025774509</v>
       </c>
       <c r="X20" t="n">
-        <v>3087.242562353822</v>
+        <v>3087.242562353819</v>
       </c>
       <c r="Y20" t="n">
-        <v>2678.956438653476</v>
+        <v>2678.956438653473</v>
       </c>
     </row>
     <row r="21">
@@ -5805,10 +5805,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>602.907721672408</v>
+        <v>602.9077216724079</v>
       </c>
       <c r="C21" t="n">
-        <v>496.4512605090503</v>
+        <v>496.4512605090502</v>
       </c>
       <c r="D21" t="n">
         <v>401.3609716556035</v>
@@ -5823,10 +5823,10 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H21" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111513</v>
       </c>
       <c r="I21" t="n">
-        <v>122.7996498415728</v>
+        <v>122.7996498415727</v>
       </c>
       <c r="J21" t="n">
         <v>447.3579748077851</v>
@@ -5871,10 +5871,10 @@
         <v>1005.56483773407</v>
       </c>
       <c r="X21" t="n">
-        <v>850.6974019729504</v>
+        <v>850.6974019729503</v>
       </c>
       <c r="Y21" t="n">
-        <v>724.2116227521711</v>
+        <v>724.211622752171</v>
       </c>
     </row>
     <row r="22">
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1175.794137292997</v>
+        <v>806.2298140987272</v>
       </c>
       <c r="C22" t="n">
-        <v>1003.232425776222</v>
+        <v>633.6681025819521</v>
       </c>
       <c r="D22" t="n">
-        <v>837.3544329777442</v>
+        <v>467.7901097834749</v>
       </c>
       <c r="E22" t="n">
-        <v>667.5964292284815</v>
+        <v>298.0321060342121</v>
       </c>
       <c r="F22" t="n">
-        <v>490.8893751902377</v>
+        <v>121.3250519959684</v>
       </c>
       <c r="G22" t="n">
-        <v>325.2981002160653</v>
+        <v>96.73597668111513</v>
       </c>
       <c r="H22" t="n">
-        <v>185.3959259064399</v>
+        <v>96.73597668111513</v>
       </c>
       <c r="I22" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111513</v>
       </c>
       <c r="J22" t="n">
-        <v>183.3156618458051</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K22" t="n">
         <v>458.0741164169406</v>
       </c>
       <c r="L22" t="n">
-        <v>876.2839981849017</v>
+        <v>876.2839981849016</v>
       </c>
       <c r="M22" t="n">
-        <v>1335.767865365815</v>
+        <v>1335.767865365814</v>
       </c>
       <c r="N22" t="n">
         <v>1778.026668523459</v>
@@ -5932,28 +5932,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R22" t="n">
-        <v>2691.977765289287</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S22" t="n">
-        <v>2532.736396587283</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T22" t="n">
-        <v>2286.856950165738</v>
+        <v>2308.274771460366</v>
       </c>
       <c r="U22" t="n">
-        <v>2286.856950165738</v>
+        <v>2029.841770713472</v>
       </c>
       <c r="V22" t="n">
-        <v>2112.450585778171</v>
+        <v>1742.886262583902</v>
       </c>
       <c r="W22" t="n">
-        <v>1840.424181364463</v>
+        <v>1470.859858170194</v>
       </c>
       <c r="X22" t="n">
-        <v>1595.032426697876</v>
+        <v>1225.468103503606</v>
       </c>
       <c r="Y22" t="n">
-        <v>1367.612756011984</v>
+        <v>998.0484328177142</v>
       </c>
     </row>
     <row r="23">
@@ -5987,16 +5987,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6121,13 +6121,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1181.319000882661</v>
+        <v>1011.560997133398</v>
       </c>
       <c r="C25" t="n">
-        <v>1008.757289365886</v>
+        <v>838.9992856166232</v>
       </c>
       <c r="D25" t="n">
-        <v>842.8792965674086</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="E25" t="n">
         <v>673.1212928181459</v>
@@ -6169,28 +6169,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.50262887895</v>
       </c>
       <c r="S25" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T25" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755402</v>
       </c>
       <c r="U25" t="n">
-        <v>2035.366634303136</v>
+        <v>2235.172953748143</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.411126173566</v>
+        <v>1948.217445618573</v>
       </c>
       <c r="W25" t="n">
-        <v>1476.384721759858</v>
+        <v>1676.191041204865</v>
       </c>
       <c r="X25" t="n">
-        <v>1230.99296709327</v>
+        <v>1430.799286538277</v>
       </c>
       <c r="Y25" t="n">
-        <v>1230.99296709327</v>
+        <v>1203.379615852385</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6224,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M26" t="n">
-        <v>2588.899621423627</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>673.1212928181458</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>496.414238779902</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6385,7 +6385,7 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K28" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L28" t="n">
         <v>881.8088617745661</v>
@@ -6406,28 +6406,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2213.112338778418</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1926.156830648849</v>
+        <v>1889.413325832885</v>
       </c>
       <c r="W28" t="n">
-        <v>1654.13042623514</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1408.738671568553</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1181.319000882661</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6464,22 +6464,22 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>605.8694973157604</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>1680.92946356862</v>
       </c>
       <c r="M29" t="n">
-        <v>2588.899621423627</v>
+        <v>2837.977298779171</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>3963.708282215618</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="Q29" t="n">
         <v>4943.887948785924</v>
@@ -6537,10 +6537,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2970399865835</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>426.8553649527958</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
         <v>1107.588885023173</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1011.560997133398</v>
+        <v>1004.611946844417</v>
       </c>
       <c r="C31" t="n">
-        <v>838.9992856166232</v>
+        <v>832.0502353276421</v>
       </c>
       <c r="D31" t="n">
-        <v>673.1212928181459</v>
+        <v>666.1722425291648</v>
       </c>
       <c r="E31" t="n">
-        <v>673.1212928181459</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="F31" t="n">
         <v>496.4142387799021</v>
@@ -6643,28 +6643,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T31" t="n">
-        <v>2451.623182457407</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U31" t="n">
-        <v>2173.190181710512</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V31" t="n">
-        <v>1886.234673580942</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W31" t="n">
-        <v>1614.208269167234</v>
+        <v>1669.241990915883</v>
       </c>
       <c r="X31" t="n">
-        <v>1368.816514500646</v>
+        <v>1423.850236249296</v>
       </c>
       <c r="Y31" t="n">
-        <v>1141.396843814755</v>
+        <v>1196.430565563404</v>
       </c>
     </row>
     <row r="32">
@@ -6698,16 +6698,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>2011.671098481817</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N32" t="n">
         <v>2588.899621423627</v>
@@ -6780,22 +6780,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L33" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M33" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N33" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O33" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P33" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q33" t="n">
         <v>1648.327823655249</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1041.416826573035</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C34" t="n">
-        <v>868.8551150562604</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D34" t="n">
-        <v>702.9771222577831</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E34" t="n">
-        <v>533.2191185085204</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F34" t="n">
-        <v>356.5120644702766</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G34" t="n">
-        <v>190.9207894961043</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6880,28 +6880,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S34" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T34" t="n">
-        <v>2473.041003752034</v>
+        <v>2451.623182457407</v>
       </c>
       <c r="U34" t="n">
-        <v>2194.60800300514</v>
+        <v>2173.190181710512</v>
       </c>
       <c r="V34" t="n">
-        <v>1907.65249487557</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W34" t="n">
-        <v>1635.626090461862</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X34" t="n">
-        <v>1390.234335795274</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y34" t="n">
-        <v>1233.235445292023</v>
+        <v>1284.477670376324</v>
       </c>
     </row>
     <row r="35">
@@ -6935,28 +6935,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>525.945884713274</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L35" t="n">
-        <v>1601.005850966133</v>
+        <v>1612.575493976557</v>
       </c>
       <c r="M35" t="n">
-        <v>2758.053686176684</v>
+        <v>2769.623329187108</v>
       </c>
       <c r="N35" t="n">
-        <v>2758.053686176684</v>
+        <v>3895.354312623555</v>
       </c>
       <c r="O35" t="n">
-        <v>3738.23335274699</v>
+        <v>4875.533979193861</v>
       </c>
       <c r="P35" t="n">
-        <v>4566.543227580387</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -7017,22 +7017,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L36" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M36" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N36" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O36" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P36" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q36" t="n">
         <v>1648.327823655249</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>842.8792965674086</v>
+        <v>790.336856393764</v>
       </c>
       <c r="C37" t="n">
-        <v>842.8792965674086</v>
+        <v>790.336856393764</v>
       </c>
       <c r="D37" t="n">
-        <v>842.8792965674086</v>
+        <v>790.336856393764</v>
       </c>
       <c r="E37" t="n">
-        <v>673.1212928181459</v>
+        <v>620.5788526445012</v>
       </c>
       <c r="F37" t="n">
         <v>496.4142387799021</v>
@@ -7117,28 +7117,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878952</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2590.803700350592</v>
+        <v>2538.261260176948</v>
       </c>
       <c r="T37" t="n">
-        <v>2344.924253929048</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U37" t="n">
-        <v>2066.491253182153</v>
+        <v>2013.948813008509</v>
       </c>
       <c r="V37" t="n">
-        <v>1779.535745052583</v>
+        <v>1726.993304878939</v>
       </c>
       <c r="W37" t="n">
-        <v>1507.509340638875</v>
+        <v>1454.966900465231</v>
       </c>
       <c r="X37" t="n">
-        <v>1262.117585972287</v>
+        <v>1209.575145798643</v>
       </c>
       <c r="Y37" t="n">
-        <v>1034.697915286396</v>
+        <v>982.1554751127512</v>
       </c>
     </row>
     <row r="38">
@@ -7154,16 +7154,16 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771593</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7172,16 +7172,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
         <v>2588.899621423627</v>
@@ -7208,16 +7208,16 @@
         <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7254,22 +7254,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L39" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M39" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N39" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O39" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P39" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q39" t="n">
         <v>1648.327823655249</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>952.7568773477109</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C40" t="n">
-        <v>780.1951658309358</v>
+        <v>920.0973401405613</v>
       </c>
       <c r="D40" t="n">
-        <v>614.3171730324585</v>
+        <v>754.219347342084</v>
       </c>
       <c r="E40" t="n">
-        <v>444.5591692831958</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F40" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G40" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H40" t="n">
         <v>102.2608402707796</v>
@@ -7357,25 +7357,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T40" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U40" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.60800300514</v>
       </c>
       <c r="V40" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W40" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461862</v>
       </c>
       <c r="X40" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795275</v>
       </c>
       <c r="Y40" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109383</v>
       </c>
     </row>
     <row r="41">
@@ -7397,7 +7397,7 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G41" t="n">
         <v>391.8077842004234</v>
@@ -7409,16 +7409,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2011.671098481817</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N41" t="n">
         <v>2588.899621423627</v>
@@ -7448,13 +7448,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="42">
@@ -7491,22 +7491,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L42" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M42" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N42" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O42" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P42" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q42" t="n">
         <v>1648.327823655249</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1035.728611060352</v>
+        <v>1090.187678435287</v>
       </c>
       <c r="C43" t="n">
-        <v>863.1668995435767</v>
+        <v>917.6259669185118</v>
       </c>
       <c r="D43" t="n">
-        <v>697.2889067450994</v>
+        <v>751.7479741200345</v>
       </c>
       <c r="E43" t="n">
-        <v>527.5309029958368</v>
+        <v>581.9899703707719</v>
       </c>
       <c r="F43" t="n">
-        <v>350.823848957593</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G43" t="n">
         <v>330.8229638057297</v>
@@ -7591,28 +7591,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2538.261260176948</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T43" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U43" t="n">
-        <v>2013.948813008509</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="V43" t="n">
-        <v>1726.993304878939</v>
+        <v>2026.844126920462</v>
       </c>
       <c r="W43" t="n">
-        <v>1454.966900465231</v>
+        <v>1754.817722506753</v>
       </c>
       <c r="X43" t="n">
-        <v>1454.966900465231</v>
+        <v>1509.425967840166</v>
       </c>
       <c r="Y43" t="n">
-        <v>1227.547229779339</v>
+        <v>1282.006297154274</v>
       </c>
     </row>
     <row r="44">
@@ -7628,16 +7628,16 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
         <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
         <v>102.6776296436396</v>
@@ -7646,16 +7646,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>2011.671098481817</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N44" t="n">
         <v>2588.899621423627</v>
@@ -7673,25 +7673,25 @@
         <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
         <v>4187.4836598467</v>
       </c>
       <c r="W44" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X44" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="45">
@@ -7728,22 +7728,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L45" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M45" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N45" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O45" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P45" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q45" t="n">
         <v>1648.327823655249</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1181.319000882661</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C46" t="n">
-        <v>1008.757289365886</v>
+        <v>920.0973401405613</v>
       </c>
       <c r="D46" t="n">
-        <v>842.8792965674086</v>
+        <v>754.219347342084</v>
       </c>
       <c r="E46" t="n">
-        <v>673.1212928181459</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F46" t="n">
-        <v>496.4142387799021</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G46" t="n">
-        <v>330.8229638057297</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H46" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>188.8405254354714</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>463.5989800066067</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>881.8088617745677</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1341.292728955481</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1783.551532113125</v>
+        <v>1783.551532113123</v>
       </c>
       <c r="O46" t="n">
-        <v>2203.220781338907</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2550.727675309249</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2718.920450173581</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2697.502628878953</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2538.261260176949</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T46" t="n">
-        <v>2404.930957497405</v>
+        <v>2594.704009018976</v>
       </c>
       <c r="U46" t="n">
-        <v>2404.930957497405</v>
+        <v>2316.271008272081</v>
       </c>
       <c r="V46" t="n">
-        <v>2117.975449367836</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W46" t="n">
-        <v>1845.949044954128</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X46" t="n">
-        <v>1600.55729028754</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y46" t="n">
-        <v>1373.137619601648</v>
+        <v>1284.477670376324</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7988,16 +7988,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>40.34758805804262</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>613.8410568773357</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773356</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,13 +8058,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773357</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>47.47818213854669</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8073,10 +8073,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8140,19 +8140,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>251.5971719568381</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>296.5687363523682</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821538</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8228,13 +8228,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>409.0142240616578</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,10 +8450,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>459.6491932314102</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8465,13 +8465,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="P8" t="n">
-        <v>459.6491932314102</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="Q8" t="n">
-        <v>290.2128107706683</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8532,7 +8532,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.6491932314103</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,10 +8547,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>288.2218006662696</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314102</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8614,16 +8614,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>27.75305498978599</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314103</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
         <v>351.0170646165068</v>
@@ -8693,16 +8693,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>1085.919157831171</v>
+        <v>955.8742281294867</v>
       </c>
       <c r="M11" t="n">
-        <v>860.0355415814561</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8775,7 +8775,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8930,13 +8930,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>40.81776196806959</v>
       </c>
       <c r="N14" t="n">
-        <v>955.8742281294903</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -8948,7 +8948,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9161,19 +9161,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>429.2861157754775</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9185,7 +9185,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>40.81776196806914</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>40.81776196806959</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>40.81776196807277</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
         <v>842.7780726850283</v>
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>583.0591140826364</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
@@ -9881,22 +9881,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10112,25 +10112,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>69.04441372935651</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>170.8626916697543</v>
@@ -10185,13 +10185,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0.03656536949883105</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
         <v>842.7780726850283</v>
@@ -10355,10 +10355,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>583.0591140826364</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10428,7 +10428,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10446,7 +10446,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -10583,10 +10583,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>427.964691356055</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -10595,19 +10595,19 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458549</v>
+        <v>69.04441372935617</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,7 +10665,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10683,7 +10683,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
         <v>842.7780726850283</v>
@@ -10829,10 +10829,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>583.0591140826364</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10902,7 +10902,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10920,7 +10920,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
@@ -11066,10 +11066,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N41" t="n">
-        <v>583.0591140826364</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11139,7 +11139,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11157,7 +11157,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
         <v>842.7780726850283</v>
@@ -11303,10 +11303,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N44" t="n">
-        <v>583.0591140826364</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11376,7 +11376,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11394,7 +11394,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>268.0111327346217</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23318,7 +23318,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>268.0111327346236</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>111.4236523045829</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627261</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23504,7 +23504,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>268.0111327346231</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>185.1957776566199</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,7 +23662,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>26.33579611060381</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,13 +23707,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>96.56253959275475</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23747,10 +23747,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>268.0111327346211</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23783,10 +23783,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>49.73195639979966</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23896,7 +23896,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>139.592177662726</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>3.146865729424235</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23972,7 +23972,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>268.0111327346211</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23981,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>268.0111327346239</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,10 +24181,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>111.4236523045823</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>140.7232059832942</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,7 +24370,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>219.0118993322389</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>139.592177662726</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>197.1718905122112</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>61.36294431725422</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24844,10 +24844,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
         <v>157.6489550149833</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>33.27974144948178</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>157.6489550149833</v>
@@ -25135,13 +25135,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>141.6500182959531</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>69.71657238081391</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25321,7 +25321,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>52.01701577190822</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>52.01701577190764</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>120.4463752142713</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -25597,7 +25597,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>139.592177662726</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25795,10 +25795,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>90.22000922290029</v>
       </c>
       <c r="G43" t="n">
-        <v>144.134485924086</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,16 +26068,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>111.4236523045809</v>
+        <v>120.4463752142719</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>646090.7610441678</v>
+        <v>659697.7322565301</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>646090.7610441678</v>
+        <v>663550.863924902</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>648628.6877387821</v>
+        <v>663550.863924902</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>658977.2993544929</v>
+        <v>658977.2993544927</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>658977.299354493</v>
+        <v>658977.2993544927</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>658977.2993544929</v>
+        <v>658977.2993544927</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>658977.299354493</v>
+        <v>658977.2993544927</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>686786.8944124917</v>
+        <v>686786.8944124916</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>686786.8944124916</v>
+        <v>686786.8944124915</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>686786.8944124917</v>
+        <v>686786.8944124916</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>686786.8944124917</v>
+        <v>686786.8944124915</v>
       </c>
     </row>
   </sheetData>
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>335092.0749315051</v>
+      </c>
+      <c r="C2" t="n">
         <v>335092.0749315052</v>
-      </c>
-      <c r="C2" t="n">
-        <v>335092.0749315051</v>
       </c>
       <c r="D2" t="n">
         <v>335092.0749315051</v>
       </c>
       <c r="E2" t="n">
-        <v>315952.4362322977</v>
+        <v>315952.4362322975</v>
       </c>
       <c r="F2" t="n">
-        <v>315952.4362322977</v>
+        <v>315952.4362322976</v>
       </c>
       <c r="G2" t="n">
         <v>315952.4362322978</v>
@@ -26335,10 +26335,10 @@
         <v>329285.9900858452</v>
       </c>
       <c r="J2" t="n">
-        <v>329285.9900858453</v>
+        <v>329285.9900858452</v>
       </c>
       <c r="K2" t="n">
-        <v>329285.9900858453</v>
+        <v>329285.9900858452</v>
       </c>
       <c r="L2" t="n">
         <v>329285.9900858452</v>
@@ -26347,13 +26347,13 @@
         <v>329285.9900858452</v>
       </c>
       <c r="N2" t="n">
-        <v>329285.9900858453</v>
+        <v>329285.9900858452</v>
       </c>
       <c r="O2" t="n">
-        <v>329285.9900858451</v>
+        <v>329285.9900858452</v>
       </c>
       <c r="P2" t="n">
-        <v>329285.9900858451</v>
+        <v>329285.9900858452</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>205712.2565039034</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>17340.5443739062</v>
       </c>
       <c r="D3" t="n">
-        <v>10981.80667200296</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>223799.2937520271</v>
+        <v>161735.0752101142</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>18364.71563283946</v>
+        <v>18364.71563283964</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>160607.8294856136</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>13814.00856784478</v>
       </c>
       <c r="L3" t="n">
-        <v>8947.61108851013</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>186790.9866104674</v>
+        <v>134989.9446130033</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>212093.1194372179</v>
+        <v>182320.381351328</v>
       </c>
       <c r="C4" t="n">
-        <v>212093.119437218</v>
+        <v>173889.5352664431</v>
       </c>
       <c r="D4" t="n">
-        <v>206540.0080518354</v>
+        <v>173889.5352664431</v>
       </c>
       <c r="E4" t="n">
-        <v>91036.59625752569</v>
+        <v>91036.59625752564</v>
       </c>
       <c r="F4" t="n">
-        <v>91036.5962575257</v>
+        <v>91036.59625752564</v>
       </c>
       <c r="G4" t="n">
-        <v>91036.5962575257</v>
+        <v>91036.59625752563</v>
       </c>
       <c r="H4" t="n">
-        <v>91036.59625752569</v>
+        <v>91036.59625752564</v>
       </c>
       <c r="I4" t="n">
         <v>94878.44464875289</v>
@@ -26451,10 +26451,10 @@
         <v>94878.44464875288</v>
       </c>
       <c r="N4" t="n">
-        <v>94878.44464875293</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="O4" t="n">
-        <v>94878.44464875289</v>
+        <v>94878.44464875292</v>
       </c>
       <c r="P4" t="n">
         <v>94878.44464875292</v>
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>70949.13625814201</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>61574.27094846974</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73519.34227764752</v>
+        <v>73519.34227764751</v>
       </c>
       <c r="F5" t="n">
-        <v>73519.34227764753</v>
+        <v>73519.34227764751</v>
       </c>
       <c r="G5" t="n">
-        <v>73519.34227764753</v>
+        <v>73519.34227764751</v>
       </c>
       <c r="H5" t="n">
-        <v>73519.34227764753</v>
+        <v>73519.34227764751</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-78617.133302645</v>
+        <v>-123889.6991818683</v>
       </c>
       <c r="C6" t="n">
-        <v>63574.16735706484</v>
+        <v>69649.47072939818</v>
       </c>
       <c r="D6" t="n">
-        <v>55995.98925919709</v>
+        <v>86990.01510330434</v>
       </c>
       <c r="E6" t="n">
-        <v>-72402.79605490259</v>
+        <v>-10415.13606778671</v>
       </c>
       <c r="F6" t="n">
-        <v>151396.4976971245</v>
+        <v>151319.9391423277</v>
       </c>
       <c r="G6" t="n">
-        <v>151396.4976971245</v>
+        <v>151319.9391423278</v>
       </c>
       <c r="H6" t="n">
-        <v>151396.4976971245</v>
+        <v>151319.9391423278</v>
       </c>
       <c r="I6" t="n">
-        <v>138324.5911984604</v>
+        <v>138301.3668590775</v>
       </c>
       <c r="J6" t="n">
-        <v>45674.84148630971</v>
+        <v>-3941.746993696468</v>
       </c>
       <c r="K6" t="n">
-        <v>156689.3068312999</v>
+        <v>142852.0739240723</v>
       </c>
       <c r="L6" t="n">
-        <v>147741.6957427897</v>
+        <v>156666.0824919171</v>
       </c>
       <c r="M6" t="n">
-        <v>-30101.67977916758</v>
+        <v>21676.13787891388</v>
       </c>
       <c r="N6" t="n">
-        <v>156689.3068312999</v>
+        <v>156666.0824919172</v>
       </c>
       <c r="O6" t="n">
-        <v>156689.3068312997</v>
+        <v>156666.0824919172</v>
       </c>
       <c r="P6" t="n">
-        <v>156689.3068312997</v>
+        <v>156666.0824919171</v>
       </c>
     </row>
   </sheetData>
@@ -26787,25 +26787,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773357</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>459.6491932314103</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1209.19970851394</v>
+        <v>1209.199708513939</v>
       </c>
       <c r="F4" t="n">
-        <v>1209.19970851394</v>
+        <v>1209.199708513939</v>
       </c>
       <c r="G4" t="n">
-        <v>1209.19970851394</v>
+        <v>1209.199708513939</v>
       </c>
       <c r="H4" t="n">
-        <v>1209.19970851394</v>
+        <v>1209.199708513939</v>
       </c>
       <c r="I4" t="n">
         <v>1278.260503384745</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773357</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>53.67414973052121</v>
       </c>
       <c r="D4" t="n">
-        <v>35.35333571130593</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>749.5505152825293</v>
+        <v>541.6845019060822</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>69.06079487080547</v>
+        <v>69.06079487080615</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773357</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052121</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130593</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825293</v>
+        <v>541.6845019060822</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773357</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052121</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130593</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825293</v>
+        <v>541.6845019060822</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>324.3396253613196</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>7.254829457195569</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27394,10 +27394,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>4.237799521781909</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27537,16 +27537,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>15.25866626238687</v>
       </c>
       <c r="F4" t="n">
-        <v>1.380827883345518</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27619,16 +27619,16 @@
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>108.9993815687711</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>5.14113987318342</v>
+        <v>124.95071415502</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
@@ -27679,7 +27679,7 @@
         <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27786,7 +27786,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>160.7958207444081</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
@@ -27825,7 +27825,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27834,13 +27834,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>111.4434555899609</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>374.3251492764871</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
         <v>400</v>
-      </c>
-      <c r="D8" t="n">
-        <v>400</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>86.5576416575629</v>
+      </c>
+      <c r="Y8" t="n">
         <v>400</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28011,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28020,7 +28020,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>177.6069225139699</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30745,7 +30745,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -34696,10 +34696,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34708,16 +34708,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>40.34758805804262</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>613.8410568773357</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773356</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34772,19 +34772,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773357</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>47.47818213854669</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -34793,10 +34793,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,25 +34854,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>251.5971719568381</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>296.5687363523682</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821539</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34948,13 +34948,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>409.0142240616578</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,10 +35170,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>459.6491932314102</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35185,16 +35185,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="P8" t="n">
-        <v>459.6491932314102</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="Q8" t="n">
-        <v>290.2128107706683</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697542</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,13 +35246,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.6491932314103</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35267,10 +35267,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>288.2218006662696</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314102</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35334,19 +35334,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>27.75305498978599</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314103</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35407,22 +35407,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>1085.919157831171</v>
+        <v>955.8742281294867</v>
       </c>
       <c r="M11" t="n">
-        <v>860.0355415814561</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458546</v>
@@ -35495,7 +35495,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35504,7 +35504,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35644,19 +35644,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>40.81776196806959</v>
       </c>
       <c r="N14" t="n">
-        <v>955.8742281294903</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35668,7 +35668,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35808,16 +35808,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>429.2861157754775</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>40.81776196806914</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36045,16 +36045,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
@@ -36127,7 +36127,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>40.81776196806959</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -36136,13 +36136,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>40.81776196807277</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36282,16 +36282,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
@@ -36355,10 +36355,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
@@ -36367,7 +36367,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>583.0591140826364</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,13 +36750,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.4542274390807</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960965</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M28" t="n">
         <v>464.1251183645586</v>
@@ -36832,25 +36832,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>69.04441372935651</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>170.862691669754</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0.03656536949883105</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36996,13 +36996,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>464.1251183645588</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N31" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
@@ -37066,19 +37066,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>583.0591140826364</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37148,7 +37148,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37166,7 +37166,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>427.964691356055</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>1168.735187081364</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831377</v>
+        <v>990.0804712831382</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>69.04441372935617</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37403,7 +37403,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -37476,13 +37476,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821543</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,19 +37540,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>583.0591140826364</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37622,7 +37622,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37640,7 +37640,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -37777,19 +37777,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N41" t="n">
-        <v>583.0591140826364</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37859,7 +37859,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37877,7 +37877,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -37950,7 +37950,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38014,19 +38014,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N44" t="n">
-        <v>583.0591140826364</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38096,7 +38096,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38114,7 +38114,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908262</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645584</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>
